--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,28 +22,28 @@
     <t>ID</t>
   </si>
   <si>
-    <t>升级资源</t>
-  </si>
-  <si>
-    <t>升级花费（普通货币）</t>
-  </si>
-  <si>
-    <t>升级条件</t>
-  </si>
-  <si>
-    <t>升级时间（分钟）</t>
+    <t>升级资源（id|数量）</t>
+  </si>
+  <si>
+    <t>升级花费</t>
+  </si>
+  <si>
+    <t>升级条件（主船等级）</t>
+  </si>
+  <si>
+    <t>升级时间（s）</t>
   </si>
   <si>
     <t>模型资源</t>
   </si>
   <si>
-    <t>解锁食物</t>
+    <t>解锁食物（id）</t>
   </si>
   <si>
     <t>解锁制作位数量</t>
   </si>
   <si>
-    <t>主动解锁制作位置消耗</t>
+    <t>主动解锁制作位置消耗（充值货币）</t>
   </si>
   <si>
     <t>A</t>
@@ -101,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,16 +126,15 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,36 +142,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,47 +155,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +185,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -248,23 +262,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,37 +285,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,145 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,17 +509,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,55 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F10"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1248,7 +1248,6 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
       <c r="G5" s="2">
         <v>101</v>
       </c>
@@ -1275,7 +1274,6 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="3"/>
       <c r="G6" s="2">
         <v>102</v>
       </c>
@@ -1302,7 +1300,6 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="3"/>
       <c r="G7" s="2">
         <v>103</v>
       </c>
@@ -1329,7 +1326,6 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="3"/>
       <c r="G8" s="2">
         <v>104</v>
       </c>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -99,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,6 +126,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -134,14 +149,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,105 +217,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -262,9 +225,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,12 +285,156 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -303,169 +447,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,11 +509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,26 +529,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,17 +563,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,10 +597,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +609,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1101,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -1194,13 +1194,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" ht="12" spans="1:9">

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -82,16 +82,7 @@
     <t>UnlockSpaceCost</t>
   </si>
   <si>
-    <t>1001|300;1004|160</t>
-  </si>
-  <si>
-    <t>1001|500;1004|300</t>
-  </si>
-  <si>
-    <t>1001|1200;1004|800</t>
-  </si>
-  <si>
-    <t>1003|2000;1004|2000</t>
+    <t>1001|20;1002|10</t>
   </si>
 </sst>
 </file>
@@ -99,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,9 +117,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,10 +163,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -155,9 +186,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,39 +201,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,14 +239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -235,29 +249,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,25 +276,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,61 +420,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,91 +438,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -509,6 +500,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -533,6 +535,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -544,6 +555,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,45 +582,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -609,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1096,15 +1087,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
@@ -1246,10 +1237,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G5" s="2">
-        <v>101</v>
+        <v>1101</v>
       </c>
       <c r="H5" s="2">
         <v>1</v>
@@ -1263,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1272,16 +1263,16 @@
         <v>5</v>
       </c>
       <c r="E6" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G6" s="2">
-        <v>102</v>
+        <v>1102</v>
       </c>
       <c r="H6" s="2">
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1289,7 +1280,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1298,16 +1289,16 @@
         <v>6</v>
       </c>
       <c r="E7" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2">
-        <v>103</v>
+        <v>1103</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
       </c>
       <c r="I7" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1315,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1324,16 +1315,68 @@
         <v>8</v>
       </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="G8" s="2">
-        <v>104</v>
+        <v>1104</v>
       </c>
       <c r="H8" s="2">
         <v>4</v>
       </c>
       <c r="I8" s="2">
-        <v>103</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>11000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1105</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5</v>
+      </c>
+      <c r="I9" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11000</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>60</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1106</v>
+      </c>
+      <c r="H10" s="2">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>1001|20;1002|10</t>
+  </si>
+  <si>
+    <t>ABC_A</t>
   </si>
 </sst>
 </file>
@@ -90,9 +93,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -124,7 +127,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -134,32 +189,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,66 +242,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -239,9 +249,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,13 +259,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -276,187 +279,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,6 +484,24 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,35 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,22 +565,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -588,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,16 +603,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,115 +621,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1095,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B10"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1239,6 +1242,9 @@
       <c r="E5" s="2">
         <v>60</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G5" s="2">
         <v>1101</v>
       </c>
@@ -1265,6 +1271,9 @@
       <c r="E6" s="2">
         <v>60</v>
       </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G6" s="2">
         <v>1102</v>
       </c>
@@ -1291,6 +1300,9 @@
       <c r="E7" s="2">
         <v>60</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="2">
         <v>1103</v>
       </c>
@@ -1317,6 +1329,9 @@
       <c r="E8" s="2">
         <v>60</v>
       </c>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G8" s="2">
         <v>1104</v>
       </c>
@@ -1343,6 +1358,9 @@
       <c r="E9" s="2">
         <v>60</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G9" s="2">
         <v>1105</v>
       </c>
@@ -1368,6 +1386,9 @@
       </c>
       <c r="E10" s="2">
         <v>60</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="G10" s="2">
         <v>1106</v>

--- a/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
+++ b/Tables/Sources/gameplay/Facility/FacilityKitchen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -31,9 +31,6 @@
     <t>升级条件（主船等级）</t>
   </si>
   <si>
-    <t>升级时间（s）</t>
-  </si>
-  <si>
     <t>模型资源</t>
   </si>
   <si>
@@ -65,9 +62,6 @@
   </si>
   <si>
     <t>UpgradePreconditions</t>
-  </si>
-  <si>
-    <t>UpgradeTime</t>
   </si>
   <si>
     <t>ModelResources</t>
@@ -93,10 +87,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -121,14 +115,98 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,97 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -242,23 +229,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,50 +482,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,21 +493,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,16 +520,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,133 +597,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1090,27 +1084,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F10"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="5.37962962962963" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6296296296296" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.3796296296296" style="2" customWidth="1"/>
-    <col min="4" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.8148148148148" style="3" customWidth="1"/>
-    <col min="7" max="8" width="12.3796296296296" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.4444444444444" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="19.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.8148148148148" style="3" customWidth="1"/>
+    <col min="6" max="7" width="12.3796296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.4444444444444" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,103 +1129,91 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>10</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
         <v>2500</v>
@@ -1239,28 +1221,25 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="2">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1101</v>
       </c>
       <c r="G5" s="2">
-        <v>1101</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2">
         <v>3600</v>
@@ -1268,28 +1247,25 @@
       <c r="D6" s="2">
         <v>5</v>
       </c>
-      <c r="E6" s="2">
-        <v>60</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>22</v>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1102</v>
       </c>
       <c r="G6" s="2">
-        <v>1102</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2">
-        <v>2</v>
-      </c>
-      <c r="I6" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>6000</v>
@@ -1297,28 +1273,25 @@
       <c r="D7" s="2">
         <v>6</v>
       </c>
-      <c r="E7" s="2">
-        <v>60</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1103</v>
       </c>
       <c r="G7" s="2">
-        <v>1103</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2">
         <v>11000</v>
@@ -1326,28 +1299,25 @@
       <c r="D8" s="2">
         <v>8</v>
       </c>
-      <c r="E8" s="2">
-        <v>60</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>22</v>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1104</v>
       </c>
       <c r="G8" s="2">
-        <v>1104</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>4</v>
-      </c>
-      <c r="I8" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>11000</v>
@@ -1355,28 +1325,25 @@
       <c r="D9" s="2">
         <v>6</v>
       </c>
-      <c r="E9" s="2">
-        <v>60</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>22</v>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1105</v>
       </c>
       <c r="G9" s="2">
-        <v>1105</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
-        <v>5</v>
-      </c>
-      <c r="I9" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>11000</v>
@@ -1384,19 +1351,16 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
-        <v>60</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
+      <c r="E10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1106</v>
       </c>
       <c r="G10" s="2">
-        <v>1106</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2">
         <v>100</v>
       </c>
     </row>
